--- a/medicine/Pharmacie/Neuropharmacologie/Neuropharmacologie.xlsx
+++ b/medicine/Pharmacie/Neuropharmacologie/Neuropharmacologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La neuropharmacologie est la science qui étudie l'incidence des médicaments sur le système nerveux[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La neuropharmacologie est la science qui étudie l'incidence des médicaments sur le système nerveux. 
 Il existe deux branches de neuropharmacologie :  
 La neuropharmacologie comportementale étudie la façon dont les drogues (médicamenteuses ou récréatives) affectent le comportement humain (branche reliée à la neuropsychopharmacologie), incluant notamment les effets de la dépendance sur le cerveau humain ;
 La neuropharmacologie moléculaire concerne l'étude des neurones et de leurs interactions neurochimiques, dans le but de développer des médicaments pouvant avoir des effets bénéfiques sur leurs fonctions.
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,6 +556,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,6 +584,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,6 +612,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -619,7 +639,9 @@
           <t>Étude de quelques grandes familles de canaux : aspects structuraux, physiologiques et pathophysiologiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Canaux potassiques
 canaux voltage-dépendent sodiques, calciques et chlorures : rôle dans le maintien du potentiel de repos et dans la genèse du potentiel d'action
@@ -652,6 +674,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
